--- a/biology/Zoologie/Epialtidae/Epialtidae.xlsx
+++ b/biology/Zoologie/Epialtidae/Epialtidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Epialtidae  sont une famille de crabes. Elle comprend près de 400 espèces actuelles et une vingtaine de fossiles dans 85 genres dont cinq fossiles.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (25 février 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 février 2015) :
 Sous-famille Epialtinae MacLeay, 1838
 Acanthonyx Latreille, 1829
 Alcockia Števčić, 2005
@@ -644,7 +658,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Macleay, 1838 : On the brachyurous decapod Crustacea brought from the Cape by Dr. Smith. Illustrations of the Annulosa of South Africa; being a portion of the objects of natural history chiefly collected during an expedition into the interior of South Africa, under the direction of Dr. Andrew Smith, in the years 1834, 1835. and 1836; fitted out by “The Cape of Good Hope Association for Exploring Central Africa”. p. 53–71.</t>
         </is>
@@ -674,7 +690,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17, p. 1–286.
 De Grave &amp; al., 2009 : A Classification of Living and Fossil Genera of Decapod Crustaceans. Raffles Bulletin of Zoology Supplement, n. 21, p. 1-109.</t>
